--- a/data/GuangzhouMedicalHospital_features23.xlsx
+++ b/data/GuangzhouMedicalHospital_features23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://2s9j-my.sharepoint.com/personal/lqingyuan666_2s9j_onmicrosoft_com/Documents/work/health_ai/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/80c2e1f93e20066f/work/health_ai/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="103" documentId="8_{93B10DE3-4358-45D1-B9E2-A9D1545EFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD5E34E1-51EC-4019-8E58-7E8046C9CC14}"/>
+  <xr:revisionPtr revIDLastSave="113" documentId="8_{93B10DE3-4358-45D1-B9E2-A9D1545EFA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C4FC00-1A67-4FA5-B891-B3F564639024}"/>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="3990" windowWidth="28800" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6975" yWindow="2805" windowWidth="28800" windowHeight="15615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="肺癌" sheetId="4" r:id="rId1"/>
@@ -280,7 +280,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -293,10 +293,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -588,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AU122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="J100" sqref="J100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1067,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="7">
         <v>48</v>
@@ -1142,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="7">
         <v>65</v>
@@ -1217,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="7">
         <v>73</v>
@@ -1292,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="7">
         <v>37</v>
@@ -1367,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" s="7">
         <v>56</v>
@@ -1442,7 +1438,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" s="7">
         <v>39</v>
@@ -1517,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="7">
         <v>40</v>
@@ -1667,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="7">
         <v>58</v>
@@ -1742,7 +1738,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="7">
         <v>42</v>
@@ -1967,7 +1963,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C19" s="7">
         <v>45</v>
@@ -2042,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C20" s="7">
         <v>65</v>
@@ -2267,7 +2263,7 @@
         <v>1</v>
       </c>
       <c r="B23" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C23" s="7">
         <v>31</v>
@@ -2492,7 +2488,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C26" s="7">
         <v>54</v>
@@ -2717,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C29" s="7">
         <v>49</v>
@@ -2792,7 +2788,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C30" s="7">
         <v>48</v>
@@ -2867,7 +2863,7 @@
         <v>1</v>
       </c>
       <c r="B31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C31" s="7">
         <v>65</v>
@@ -2942,7 +2938,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C32" s="7">
         <v>67</v>
@@ -4811,7 +4807,7 @@
         <v>1</v>
       </c>
       <c r="B57" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C57" s="7">
         <v>69</v>
@@ -5186,7 +5182,7 @@
         <v>1</v>
       </c>
       <c r="B62" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C62" s="7">
         <v>59</v>
@@ -5411,7 +5407,7 @@
         <v>0</v>
       </c>
       <c r="B65" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C65" s="7">
         <v>62</v>
@@ -5486,7 +5482,7 @@
         <v>0</v>
       </c>
       <c r="B66" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C66" s="7">
         <v>35</v>
@@ -5561,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="B67" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C67" s="7">
         <v>54</v>
@@ -5636,7 +5632,7 @@
         <v>0</v>
       </c>
       <c r="B68" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C68" s="7">
         <v>38</v>
@@ -5861,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="B71" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C71" s="7">
         <v>67</v>
@@ -5936,7 +5932,7 @@
         <v>0</v>
       </c>
       <c r="B72" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C72" s="7">
         <v>76</v>
@@ -6011,7 +6007,7 @@
         <v>0</v>
       </c>
       <c r="B73" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C73" s="7">
         <v>50</v>
@@ -6155,7 +6151,7 @@
         <v>0</v>
       </c>
       <c r="B75" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C75" s="7">
         <v>60</v>
@@ -6230,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="B76" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C76" s="7">
         <v>55</v>
@@ -6305,7 +6301,7 @@
         <v>0</v>
       </c>
       <c r="B77" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C77" s="7">
         <v>62</v>
@@ -6524,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="B80" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80" s="7">
         <v>54</v>
@@ -6749,7 +6745,7 @@
         <v>0</v>
       </c>
       <c r="B83" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C83" s="7">
         <v>36</v>
@@ -6818,7 +6814,7 @@
         <v>0</v>
       </c>
       <c r="B84" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C84" s="7">
         <v>53</v>
@@ -6893,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C85" s="7">
         <v>43</v>
@@ -7043,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="B87" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C87" s="7">
         <v>69</v>
@@ -7193,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="B89" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C89" s="7">
         <v>71</v>
@@ -7262,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="B90" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C90" s="7">
         <v>33</v>
@@ -7487,7 +7483,7 @@
         <v>0</v>
       </c>
       <c r="B93" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C93" s="7">
         <v>56</v>
@@ -7562,7 +7558,7 @@
         <v>0</v>
       </c>
       <c r="B94" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C94" s="7">
         <v>56</v>
@@ -8087,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="B101" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C101" s="7">
         <v>59</v>
@@ -8237,7 +8233,7 @@
         <v>0</v>
       </c>
       <c r="B103" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C103" s="7">
         <v>45</v>
@@ -8312,7 +8308,7 @@
         <v>0</v>
       </c>
       <c r="B104" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C104" s="7">
         <v>75</v>
@@ -8462,7 +8458,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C106" s="7">
         <v>56</v>
@@ -8612,7 +8608,7 @@
         <v>0</v>
       </c>
       <c r="B108" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C108" s="7">
         <v>67</v>
@@ -8762,7 +8758,7 @@
         <v>0</v>
       </c>
       <c r="B110" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C110" s="7">
         <v>64</v>
@@ -8837,7 +8833,7 @@
         <v>0</v>
       </c>
       <c r="B111" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C111" s="7">
         <v>89</v>
@@ -9050,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="B114" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C114" s="7">
         <v>60</v>
@@ -9125,7 +9121,7 @@
         <v>0</v>
       </c>
       <c r="B115" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C115" s="7">
         <v>61</v>
@@ -9275,7 +9271,7 @@
         <v>0</v>
       </c>
       <c r="B117" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C117" s="7">
         <v>48</v>
@@ -9350,7 +9346,7 @@
         <v>0</v>
       </c>
       <c r="B118" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C118" s="7">
         <v>44</v>
@@ -9575,7 +9571,7 @@
         <v>0</v>
       </c>
       <c r="B121" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C121" s="7">
         <v>57</v>
